--- a/10102023combined_and_shuffled_standards.xlsx
+++ b/10102023combined_and_shuffled_standards.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matth\Desktop\raos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matth\Documents\GitHub\Standards-Research-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B88EAEA-98A9-4B2C-8C78-F2EE1285FF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C3AEDB-02FF-47FC-9ABB-ECF860B0072F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
     <t>This measurement shall be made in test cavity according to Drawing 162-JAN. With the cavity calibrator in position, the cavity shall be tuned to resonance and the relative transmitted power level noted. With the tube inserted, the cavity shall then be tuned to resonance and the transmitted power noted. The dB loss in transmitted power due to the insertion of the tube shall not be more than the specified amount.</t>
   </si>
   <si>
-    <t>Wire shall be wound with uniform tension and shall be furnished with a protective coating that will provide adequate lubricity and corrosion resistance but will not harden or produce a gummy condition in the baler tying mechanism</t>
+    <t xml:space="preserve">Wire shall be wound with uniform tension and shall be furnished with a protective coating that will provide adequate lubricity and corrosion resistance but will not harden or produce a gummy condition in the baler tying mechanism </t>
   </si>
 </sst>
 </file>
@@ -1042,14 +1042,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1115,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1137,7 +1139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1192,7 +1194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1203,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1214,7 +1216,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1258,7 +1260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -1280,7 +1282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1302,7 +1304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1324,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1346,7 +1348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1357,7 +1359,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1390,7 +1392,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -1412,7 +1414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>43</v>
       </c>
@@ -1434,7 +1436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -1445,7 +1447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -1456,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -1467,7 +1469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -1478,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -1489,7 +1491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>49</v>
       </c>
@@ -1500,7 +1502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1511,7 +1513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -1522,7 +1524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>53</v>
       </c>
@@ -1544,7 +1546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -1555,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1566,7 +1568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>56</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>57</v>
       </c>
@@ -1588,7 +1590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>58</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -1610,7 +1612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -1632,7 +1634,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>62</v>
       </c>
@@ -1643,7 +1645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>63</v>
       </c>
@@ -1654,7 +1656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>64</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>65</v>
       </c>
@@ -1676,7 +1678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
@@ -1687,7 +1689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -1709,7 +1711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -1720,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -1742,7 +1744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
@@ -1753,7 +1755,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -1764,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -1775,7 +1777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
@@ -1786,7 +1788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -1808,7 +1810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -1819,7 +1821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>34</v>
       </c>
@@ -1830,7 +1832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -1841,7 +1843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>80</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -1863,7 +1865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>58</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -1896,7 +1898,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -1907,7 +1909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -1951,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -1973,7 +1975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -1984,7 +1986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -1995,7 +1997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -2006,7 +2008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -2028,7 +2030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -2050,7 +2052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -2072,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -2094,7 +2096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -2105,7 +2107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -2116,7 +2118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2127,7 +2129,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -2138,7 +2140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -2149,7 +2151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -2160,7 +2162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -2171,7 +2173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -2182,7 +2184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -2204,7 +2206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -2215,7 +2217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -2226,7 +2228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -2237,7 +2239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -2259,7 +2261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -2270,7 +2272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -2292,7 +2294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -2303,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -2314,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -2336,7 +2338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -2347,7 +2349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -2358,7 +2360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -2369,7 +2371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -2380,7 +2382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -2402,7 +2404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -2413,7 +2415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>110</v>
       </c>
@@ -2424,7 +2426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>131</v>
       </c>
@@ -2435,7 +2437,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>132</v>
       </c>
@@ -2446,7 +2448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>133</v>
       </c>
@@ -2457,7 +2459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>134</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>135</v>
       </c>
@@ -2479,7 +2481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>136</v>
       </c>
@@ -2490,7 +2492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>137</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>138</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>139</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>140</v>
       </c>
@@ -2534,7 +2536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -2545,7 +2547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>33</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>142</v>
       </c>
@@ -2567,7 +2569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>143</v>
       </c>
@@ -2578,7 +2580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>88</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -2600,7 +2602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -2611,7 +2613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>99</v>
       </c>
@@ -2633,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -2644,7 +2646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -2655,7 +2657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>115</v>
       </c>
@@ -2688,7 +2690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>151</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -2710,7 +2712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>153</v>
       </c>
@@ -2721,7 +2723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>100</v>
       </c>
@@ -2732,7 +2734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>154</v>
       </c>
@@ -2743,7 +2745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>155</v>
       </c>
@@ -2754,7 +2756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>156</v>
       </c>
@@ -2765,7 +2767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>157</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>158</v>
       </c>
@@ -2787,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>159</v>
       </c>
@@ -2798,7 +2800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>160</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -2820,7 +2822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>162</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>163</v>
       </c>
@@ -2842,7 +2844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>164</v>
       </c>
@@ -2853,7 +2855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -2864,7 +2866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -2875,7 +2877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>167</v>
       </c>
@@ -2886,7 +2888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>168</v>
       </c>
@@ -2897,7 +2899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
@@ -2908,7 +2910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>170</v>
       </c>
@@ -2919,7 +2921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -2930,7 +2932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>172</v>
       </c>
@@ -2941,7 +2943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>173</v>
       </c>
@@ -2952,7 +2954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>174</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>175</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>176</v>
       </c>
@@ -2985,7 +2987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>75</v>
       </c>
@@ -2996,7 +2998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -3007,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -3018,7 +3020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -3029,7 +3031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -3040,7 +3042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -3051,7 +3053,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -3062,7 +3064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -3084,7 +3086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -3095,7 +3097,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -3106,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>77</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -3139,7 +3141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -3150,7 +3152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -3161,12 +3163,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -3188,7 +3190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -3199,7 +3201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -3210,7 +3212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -3221,7 +3223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -3232,7 +3234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -3254,7 +3256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -3265,7 +3267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -3276,7 +3278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -3287,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -3298,7 +3300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
